--- a/tut04/output_individual_roll/1901CE37.xlsx
+++ b/tut04/output_individual_roll/1901CE37.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,176 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CE303</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE303CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CE319</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE319CORE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CE391</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE391CORE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PH301</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Open Elective - II</t>
+          <t>1901CE375PH301Open Elective - II</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CE317</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE317CORE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CE321</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE321CORE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1901CE37</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CE393</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1901CE375CE393CORE</t>
         </is>
       </c>
     </row>
